--- a/biology/Zoologie/Coenosiinae/Coenosiinae.xlsx
+++ b/biology/Zoologie/Coenosiinae/Coenosiinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Coenosiinae forment une sous-famille d'insectes diptères de la famille des Muscidae. Il s'agit d'une des sous-familles présentes en Europe.
 </t>
@@ -513,11 +525,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tribus
-Coenosiini
-Limnophorini
-Genres non classés
-Adiplectra Enderlein, 1936
+          <t>Tribus</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Coenosiini
+Limnophorini</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Coenosiinae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coenosiinae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Genres non classés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Adiplectra Enderlein, 1936
 Aphanoneura Stein, 1919
 Lamprocoenosia Ringdahl, 1945
 Leucocoenosia Ringdahl, 1945
